--- a/set_up_grasp_models/tests/test_files/test_set_up_models/manipulate_model/HMP2360_r0_t0_mech_spaces.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/manipulate_model/HMP2360_r0_t0_mech_spaces.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,438 +31,414 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="144">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>HMP2360_r0_t0_promiscuous</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>accoa_c</t>
-  </si>
-  <si>
-    <t>sam_c</t>
-  </si>
-  <si>
-    <t>pterin1_c</t>
-  </si>
-  <si>
-    <t>trp_v</t>
-  </si>
-  <si>
-    <t>fivehtp_c</t>
-  </si>
-  <si>
-    <t>trp_c</t>
-  </si>
-  <si>
-    <t>srtn_c</t>
-  </si>
-  <si>
-    <t>nactsertn_c</t>
-  </si>
-  <si>
-    <t>meltn_c</t>
-  </si>
-  <si>
-    <t>tryptm_c</t>
-  </si>
-  <si>
-    <t>nactryptm_c</t>
-  </si>
-  <si>
-    <t>coa_c</t>
-  </si>
-  <si>
-    <t>sah_c</t>
-  </si>
-  <si>
-    <t>pterin2_c</t>
-  </si>
-  <si>
-    <t>fivehtp_e</t>
-  </si>
-  <si>
-    <t>trp_e</t>
-  </si>
-  <si>
-    <t>nactsertn_e</t>
-  </si>
-  <si>
-    <t>nactryptm_e</t>
-  </si>
-  <si>
-    <t>meltn_e</t>
-  </si>
-  <si>
-    <t>srtn_e</t>
-  </si>
-  <si>
-    <t>TPH</t>
-  </si>
-  <si>
-    <t>DDC</t>
-  </si>
-  <si>
-    <t>AANAT</t>
-  </si>
-  <si>
-    <t>EX_fivehtp</t>
-  </si>
-  <si>
-    <t>ASMT</t>
-  </si>
-  <si>
-    <t>DDC_tryptm</t>
-  </si>
-  <si>
-    <t>AANAT_tryptm</t>
-  </si>
-  <si>
-    <t>IN_trp</t>
-  </si>
-  <si>
-    <t>EX_trp</t>
-  </si>
-  <si>
-    <t>EX_srtn</t>
-  </si>
-  <si>
-    <t>EX_nactsertn</t>
-  </si>
-  <si>
-    <t>EX_meltn</t>
-  </si>
-  <si>
-    <t>EX_nactryptm</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>Acetyl-coa</t>
-  </si>
-  <si>
-    <t>S-adenosyl-methionine</t>
-  </si>
-  <si>
-    <t>tetrahydropterin</t>
-  </si>
-  <si>
-    <t>tryptophan produced by the cell</t>
-  </si>
-  <si>
-    <t>5-hydroxytryptophan</t>
-  </si>
-  <si>
-    <t>tryptophan</t>
-  </si>
-  <si>
-    <t>serotonin</t>
-  </si>
-  <si>
-    <t>N-acetylserotonin</t>
-  </si>
-  <si>
-    <t>melatonin</t>
-  </si>
-  <si>
-    <t>tryptamine</t>
-  </si>
-  <si>
-    <t>N-acetyltryptamine</t>
-  </si>
-  <si>
-    <t>coa</t>
-  </si>
-  <si>
-    <t>S-adenosyl-homocysteine</t>
-  </si>
-  <si>
-    <t>pterin-4a-carbinolamin </t>
-  </si>
-  <si>
-    <t>5-hydroxytryptophan external</t>
-  </si>
-  <si>
-    <t>tryptophan external</t>
-  </si>
-  <si>
-    <t>N-acetylserotonin external</t>
-  </si>
-  <si>
-    <t>N-acetyltryptamine external</t>
-  </si>
-  <si>
-    <t>melatonin external</t>
-  </si>
-  <si>
-    <t>serotonin external</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>tryptophan hydroxylase</t>
-  </si>
-  <si>
-    <t>tryptophan decarboxylase</t>
-  </si>
-  <si>
-    <t>aralkylamine N-acetyltransferase</t>
-  </si>
-  <si>
-    <t>Exchange 5-hydroxytryptophan</t>
-  </si>
-  <si>
-    <t>acetylserotonin methyltransferase</t>
-  </si>
-  <si>
-    <t>production of tryptophan by the cell</t>
-  </si>
-  <si>
-    <t>exchange tryptophan</t>
-  </si>
-  <si>
-    <t>exchange serotonin</t>
-  </si>
-  <si>
-    <t>exchange n-acetylserotonin</t>
-  </si>
-  <si>
-    <t>exchange melatonin</t>
-  </si>
-  <si>
-    <t>exchange n-acetyltryptamin</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>vref_mean</t>
-  </si>
-  <si>
-    <t>vref_std</t>
-  </si>
-  <si>
-    <t>vexp1_mean</t>
-  </si>
-  <si>
-    <t>vexp1_std</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t>MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>pterin1_c trp_c trp_c fivehtp_c pterin2_c</t>
-  </si>
-  <si>
-    <t>pterin1_c trp_c trp_c fivehtp_c pterin2_c </t>
-  </si>
-  <si>
-    <t>putative homotetramer (metacyc). From pdb, might actually be a monomer. Tryptophan is substate inhibitor</t>
-  </si>
-  <si>
-    <t>UniUniPromiscuous</t>
-  </si>
-  <si>
-    <t>fivehtp_c trp_c srtn_c tryptm_c</t>
-  </si>
-  <si>
-    <t>DDC DDC_tryptm</t>
-  </si>
-  <si>
-    <t>homodimer (metacyc), inhib by serotonin</t>
-  </si>
-  <si>
-    <t>AANATCompInhibIndep</t>
-  </si>
-  <si>
-    <t>accoa_c srtn_c accoa_c tryptm_c meltn_c nactsertn_c nactryptm_c coa_c coa_c</t>
-  </si>
-  <si>
-    <t>AANAT AANAT_tryptm</t>
-  </si>
-  <si>
-    <t>meltn_c </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>Serotonin N-acetyltransferase is a monomeric enzyme (metacyc)</t>
-  </si>
-  <si>
-    <t>massAction </t>
-  </si>
-  <si>
-    <t>Modeled as mass action</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>sam_c nactsertn_c meltn_c sah_c</t>
-  </si>
-  <si>
-    <t>ASMT has a C-terminal domain similar to other SAM-dependent O-methyltransferases, and an N-terminal domain which intertwines with another monomer to form the physiologically active dimer  (metacyc); inhib by melatonin</t>
-  </si>
-  <si>
-    <t>AANATCompInhibIndep </t>
-  </si>
-  <si>
-    <t>accoa_c srtn_c accoa_c tryptm_c meltn_c nactsertn_c nactryptm_c coa_c coa_c </t>
-  </si>
-  <si>
-    <t>Serotonin N-acetyltransferase is a monomeric enzyme (metacyc); inhib by melatonin</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>fixedExchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="136">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMP2360_r0_t0_promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accoa_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sam_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pterin1_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trp_v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fivehtp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srtn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nactsertn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meltn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptm_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nactryptm_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coa_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sah_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pterin2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fivehtp_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trp_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nactsertn_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nactryptm_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meltn_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srtn_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AANAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_fivehtp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDC_tryptm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AANAT_tryptm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN_trp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_trp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_srtn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_nactsertn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_meltn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_nactryptm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetyl-coa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-adenosyl-methionine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tetrahydropterin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptophan produced by the cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-hydroxytryptophan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptophan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serotonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-acetylserotonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melatonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-acetyltryptamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-adenosyl-homocysteine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pterin-4a-carbinolamin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-hydroxytryptophan external</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptophan external</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-acetylserotonin external</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-acetyltryptamine external</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melatonin external</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serotonin external</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptophan hydroxylase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptophan decarboxylase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aralkylamine N-acetyltransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exchange 5-hydroxytryptophan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acetylserotonin methyltransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production of tryptophan by the cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exchange tryptophan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exchange serotonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exchange n-acetylserotonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exchange melatonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exchange n-acetyltryptamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pterin1_c trp_c trp_c fivehtp_c pterin2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pterin1_c trp_c trp_c fivehtp_c pterin2_c </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUniPromiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fivehtp_c trp_c srtn_c tryptm_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDC DDC_tryptm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AANATCompInhibIndep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accoa_c srtn_c accoa_c tryptm_c meltn_c nactsertn_c nactryptm_c coa_c coa_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AANAT AANAT_tryptm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meltn_c </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sam_c nactsertn_c meltn_c sah_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AANATCompInhibIndep </t>
+  </si>
+  <si>
+    <t xml:space="preserve">accoa_c srtn_c accoa_c tryptm_c meltn_c nactsertn_c nactryptm_c coa_c coa_c </t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixedExchange</t>
   </si>
 </sst>
 </file>
@@ -471,7 +446,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -582,13 +557,13 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -700,7 +675,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -713,141 +688,218 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E65536"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P29" activeCellId="0" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.431738943043251</v>
+        <v>0.938105540546311</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1.21410377655987E-010</v>
+        <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.431738943043251</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1.21410377655987E-010</v>
+        <v>1.06189445945369</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>-81.4547774583559</v>
+        <v>0.948692986021061</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>4.0829462385141</v>
+        <v>1</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>-81.4547774583559</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>4.0829462385141</v>
+        <v>1.05130701397894</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>18.5183721041727</v>
+        <v>0.963822080137339</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>7.99594430470695E-007</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>18.5183721041727</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>7.99594430470695E-007</v>
+        <v>1.03617791986266</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>-0.567354685137039</v>
+        <v>0.99</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1.84127891703472E-008</v>
+        <v>1</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>-0.567354685137039</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1.84127891703472E-008</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>85.3794767878033</v>
+        <v>0.781513345189378</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1.65622684914216E-005</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>85.3794767878033</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1.65622684914216E-005</v>
+        <v>1.21848665481062</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.103545682502924</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>2.35376773094737E-010</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0.103545682502924</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>2.35376773094737E-010</v>
+      <c r="B14" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1.01</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -860,76 +912,76 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D65536"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P29" activeCellId="0" sqref="P29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.938105540546311</v>
+        <v>0.600926593306472</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1.06189445945369</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.39907340669353</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.948692986021061</v>
+        <v>0.99</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1.05130701397894</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.963822080137339</v>
+        <v>0.99</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1.03617791986266</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -941,121 +993,121 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.781513345189378</v>
+        <v>0.99</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1.21848665481062</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.99</v>
+        <v>0.897059063218122</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.10294093678188</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.99</v>
+        <v>0.879431204670374</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.12056879532963</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.99</v>
+        <v>0.851303699101255</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.14869630089874</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.99</v>
+        <v>0.913109189061105</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.0868908109389</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.99</v>
+        <v>0.965053927008861</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.03494607299114</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.99</v>
+        <v>0.622035526990772</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.37796447300923</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.99</v>
+        <v>0.799696511562971</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.20030348843703</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1067,11 +1119,108 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.771228436522274</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1.22877156347773</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.967924985045021</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1.03207501495498</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.994407168746068</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1.00559283125393</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.989083174460458</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1.01091682553954</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1084,378 +1233,57 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.600926593306472</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1.39907340669353</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.897059063218122</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1.10294093678188</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.879431204670374</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1.12056879532963</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0.851303699101255</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1.14869630089874</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.913109189061105</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1.0868908109389</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.965053927008861</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1.03494607299114</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0.622035526990772</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1.37796447300923</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.799696511562971</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1.20030348843703</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0.771228436522274</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1.22877156347773</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0.967924985045021</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1.03207501495498</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0.994407168746068</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1.00559283125393</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0.989083174460458</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1.01091682553954</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.4898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1463,13 +1291,13 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>122</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>24</v>
@@ -1479,9 +1307,6 @@
       </c>
       <c r="K2" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1489,25 +1314,22 @@
         <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,31 +1337,28 @@
         <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>132</v>
-      </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1547,16 +1366,13 @@
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,22 +1380,19 @@
         <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1587,25 +1400,22 @@
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1613,28 +1423,25 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1642,7 +1449,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1656,16 +1463,13 @@
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1673,16 +1477,13 @@
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,16 +1491,13 @@
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1707,16 +1505,13 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1724,22 +1519,19 @@
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1752,15 +1544,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U65536"/>
+  <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,7 +2469,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2690,18 +2482,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -2711,357 +2504,231 @@
       <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3074,29 +2741,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D65536"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3104,13 +2772,10 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3118,13 +2783,10 @@
         <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,13 +2794,10 @@
         <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3146,13 +2805,10 @@
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3160,13 +2816,10 @@
         <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3174,13 +2827,10 @@
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3188,13 +2838,10 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3202,13 +2849,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3216,13 +2860,10 @@
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3230,13 +2871,10 @@
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3244,13 +2882,10 @@
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,13 +2893,10 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3272,20 +2904,16 @@
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3298,92 +2926,126 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A65536"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3398,18 +3060,18 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3515,7 +3177,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3528,126 +3190,176 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>-37.2</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>-50</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>-17.8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>-23.24</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>-13.24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-43.2</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>-24.6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>-40</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>-30</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
+        <v>51</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3660,20 +3372,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C65536"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>93</v>
@@ -3682,154 +3394,230 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-60</v>
+        <v>0.000228462011808056</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.000531903777800262</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>-37.2</v>
+        <v>1E-012</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1E-008</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-50</v>
+        <v>1E-012</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-17.8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>-10</v>
+        <v>1E-012</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1E-008</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>-23.24</v>
+        <v>1E-012</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>-13.24</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1E-008</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-43.2</v>
+        <v>0.00559675402823174</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00688125161869604</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-24.6</v>
+        <v>1E-012</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1E-008</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>-40</v>
+        <v>0.00310804602125163</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00419380412819064</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>-10</v>
+        <v>0.0308279171448426</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.036695041804987</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>-30</v>
+        <v>0.00181042853161852</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00194154528238348</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-10</v>
+        <v>8.28736361429022E-005</v>
       </c>
       <c r="C12" s="0" t="n">
+        <v>0.000183585858683128</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="B13" s="0" t="n">
-        <v>-10</v>
+        <v>0.00604381725975038</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00907146002947528</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-10</v>
+        <v>1E-012</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>1E-008</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1E-008</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1E-008</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>9.44630572239322E-006</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.50504718212092E-005</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>5.16846874940607E-006</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>5.51101329571475E-006</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.000856570953217132</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.000866206154870804</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.00016291524956886</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.000166511544406742</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3842,252 +3630,141 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.000228462011808056</v>
+        <v>0.431738943043251</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.000531903777800262</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.21410377655987E-010</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.431738943043251</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1.21410377655987E-010</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1E-012</v>
+        <v>-81.4547774583559</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1E-008</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.0829462385141</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>-81.4547774583559</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>4.0829462385141</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1E-012</v>
+        <v>18.5183721041727</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7.99594430470695E-007</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>18.5183721041727</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>7.99594430470695E-007</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1E-012</v>
+        <v>-0.567354685137039</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1E-008</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.84127891703472E-008</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>-0.567354685137039</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1.84127891703472E-008</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1E-012</v>
+        <v>85.3794767878033</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1E-008</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.65622684914216E-005</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>85.3794767878033</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1.65622684914216E-005</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.00559675402823174</v>
+        <v>0.103545682502924</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.00688125161869604</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1E-008</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0.00310804602125163</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0.00419380412819064</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.0308279171448426</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.036695041804987</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.00181042853161852</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0.00194154528238348</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>8.28736361429022E-005</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0.000183585858683128</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.00604381725975038</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0.00907146002947528</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1E-008</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>1E-008</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>1E-008</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>9.44630572239322E-006</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1.50504718212092E-005</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>5.16846874940607E-006</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>5.51101329571475E-006</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0.000856570953217132</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>0.000866206154870804</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0.00016291524956886</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>0.000166511544406742</v>
-      </c>
-    </row>
+        <v>2.35376773094737E-010</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.103545682502924</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2.35376773094737E-010</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/manipulate_model/HMP2360_r0_t0_mech_spaces.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/manipulate_model/HMP2360_r0_t0_mech_spaces.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="133">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -45,25 +45,40 @@
     <t xml:space="preserve">HMP2360_r0_t0_promiscuous</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
   </si>
   <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of model structures</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of particles</t>
+    <t xml:space="preserve">Number of models</t>
   </si>
   <si>
     <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
@@ -72,19 +87,10 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+    <t xml:space="preserve">Final tolerance (in the case of GRASP, set to 1)</t>
   </si>
   <si>
     <t xml:space="preserve">rxn ID</t>
@@ -318,40 +324,25 @@
     <t xml:space="preserve">max (M)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vref_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vref_std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vexp1_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vexp1_std</t>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std (mmol/L/h)</t>
   </si>
   <si>
     <t xml:space="preserve">enzyme/rxn</t>
   </si>
   <si>
-    <t xml:space="preserve">MBo10_LB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_meas2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_UB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction ID</t>
+    <t xml:space="preserve">lower_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper_bound</t>
   </si>
   <si>
     <t xml:space="preserve">kinetic mechanism</t>
@@ -529,13 +520,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -555,26 +554,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.59"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -582,7 +582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -590,7 +590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -598,80 +598,88 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="0" t="n">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -691,31 +699,31 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P29" activeCellId="0" sqref="P29"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>39</v>
+      <c r="A2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938105540546311</v>
@@ -728,8 +736,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
+      <c r="A3" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.948692986021061</v>
@@ -742,8 +750,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
+      <c r="A4" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.963822080137339</v>
@@ -756,8 +764,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
+      <c r="A5" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -770,8 +778,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
+      <c r="A6" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.781513345189378</v>
@@ -784,8 +792,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
+      <c r="A7" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -798,8 +806,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
+      <c r="A8" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -812,8 +820,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
+      <c r="A9" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -826,8 +834,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
+      <c r="A10" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -840,8 +848,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
+      <c r="A11" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -854,8 +862,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
+      <c r="A12" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -868,8 +876,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
+      <c r="A13" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -882,8 +890,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
+      <c r="A14" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -915,31 +923,31 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.59"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>105</v>
+      <c r="D1" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
+      <c r="A2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.600926593306472</v>
@@ -952,8 +960,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
+      <c r="A3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -966,8 +974,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
+      <c r="A4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -980,8 +988,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
+      <c r="A5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -994,8 +1002,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
+      <c r="A6" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1008,8 +1016,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
+      <c r="A7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.897059063218122</v>
@@ -1022,8 +1030,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
+      <c r="A8" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.879431204670374</v>
@@ -1036,8 +1044,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
+      <c r="A9" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.851303699101255</v>
@@ -1050,8 +1058,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
+      <c r="A10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.913109189061105</v>
@@ -1064,8 +1072,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
+      <c r="A11" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.965053927008861</v>
@@ -1078,8 +1086,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
+      <c r="A12" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.622035526990772</v>
@@ -1092,8 +1100,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
+      <c r="A13" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.799696511562971</v>
@@ -1106,8 +1114,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
+      <c r="A14" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1120,8 +1128,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
+      <c r="A15" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1134,8 +1142,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
+      <c r="A16" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1148,8 +1156,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
+      <c r="A17" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1162,8 +1170,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
+      <c r="A18" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.771228436522274</v>
@@ -1176,8 +1184,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
+      <c r="A19" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.967924985045021</v>
@@ -1190,8 +1198,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
+      <c r="A20" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.994407168746068</v>
@@ -1204,8 +1212,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
+      <c r="A21" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.989083174460458</v>
@@ -1235,8 +1243,8 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1245,62 +1253,62 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>120</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1310,20 +1318,20 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
+      <c r="A3" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1333,60 +1341,60 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
+      <c r="A4" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>131</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1396,20 +1404,20 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
+      <c r="A7" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1419,66 +1427,66 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
+      <c r="A8" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
@@ -1487,11 +1495,11 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
+      <c r="A12" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1501,11 +1509,11 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
+      <c r="A13" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1515,11 +1523,11 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
+      <c r="A14" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1552,77 +1560,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="T1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>39</v>
+      <c r="A2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1686,8 +1694,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
+      <c r="A3" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1751,8 +1759,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
+      <c r="A4" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1816,8 +1824,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
+      <c r="A5" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1881,8 +1889,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
+      <c r="A6" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1946,8 +1954,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
+      <c r="A7" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -2011,8 +2019,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
+      <c r="A8" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-1</v>
@@ -2076,8 +2084,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
+      <c r="A9" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2141,8 +2149,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
+      <c r="A10" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2206,8 +2214,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
+      <c r="A11" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2271,8 +2279,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
+      <c r="A12" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2336,8 +2344,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
+      <c r="A13" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2401,8 +2409,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
+      <c r="A14" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2490,236 +2498,236 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.59"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
+      <c r="A2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
+      <c r="A3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
+      <c r="A4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
+      <c r="A5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
+      <c r="A6" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
+      <c r="A7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
+      <c r="A8" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
+      <c r="A9" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
+      <c r="A10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
+      <c r="A11" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
+      <c r="A12" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
+      <c r="A13" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
+      <c r="A14" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
+      <c r="A15" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
+      <c r="A16" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
+      <c r="A17" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
+      <c r="A18" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
+      <c r="A19" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
+      <c r="A20" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
+      <c r="A21" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2749,162 +2757,162 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.59"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="B13" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
+      <c r="A14" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2934,112 +2942,112 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.59"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>89</v>
+      <c r="A2" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
+      <c r="A7" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
+      <c r="A10" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
+      <c r="A12" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
+      <c r="A13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
+      <c r="A15" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
+      <c r="A16" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
+      <c r="A17" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
+      <c r="A18" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
+      <c r="A19" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
+      <c r="A22" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3066,112 +3074,112 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.59"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>89</v>
+      <c r="A2" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
+      <c r="A7" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
+      <c r="A10" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
+      <c r="A12" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
+      <c r="A13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
+      <c r="A15" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
+      <c r="A16" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
+      <c r="A17" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
+      <c r="A18" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
+      <c r="A19" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
+      <c r="A22" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3198,23 +3206,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>39</v>
+      <c r="A2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3224,8 +3232,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
+      <c r="A3" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3235,8 +3243,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
+      <c r="A4" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3246,8 +3254,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
+      <c r="A5" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-10</v>
@@ -3257,8 +3265,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
+      <c r="A6" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-23.24</v>
@@ -3268,8 +3276,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
+      <c r="A7" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-43.2</v>
@@ -3279,8 +3287,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
+      <c r="A8" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-24.6</v>
@@ -3290,8 +3298,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
+      <c r="A9" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-40</v>
@@ -3301,8 +3309,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
+      <c r="A10" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-10</v>
@@ -3312,8 +3320,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
+      <c r="A11" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-30</v>
@@ -3323,8 +3331,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
+      <c r="A12" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3334,8 +3342,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
+      <c r="A13" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3345,8 +3353,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
+      <c r="A14" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3380,23 +3388,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>94</v>
+      <c r="A1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
+      <c r="A2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.000228462011808056</v>
@@ -3406,8 +3414,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
+      <c r="A3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3417,8 +3425,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
+      <c r="A4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3428,8 +3436,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
+      <c r="A5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3439,8 +3447,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
+      <c r="A6" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3450,8 +3458,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
+      <c r="A7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00559675402823174</v>
@@ -3461,8 +3469,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
+      <c r="A8" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-012</v>
@@ -3472,8 +3480,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
+      <c r="A9" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00310804602125163</v>
@@ -3483,8 +3491,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
+      <c r="A10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0308279171448426</v>
@@ -3494,8 +3502,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
+      <c r="A11" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00181042853161852</v>
@@ -3505,8 +3513,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
+      <c r="A12" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>8.28736361429022E-005</v>
@@ -3516,8 +3524,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
+      <c r="A13" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.00604381725975038</v>
@@ -3527,8 +3535,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
+      <c r="A14" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3538,8 +3546,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
+      <c r="A15" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3549,8 +3557,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
+      <c r="A16" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1E-012</v>
@@ -3560,8 +3568,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
+      <c r="A17" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3571,8 +3579,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
+      <c r="A18" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>9.44630572239322E-006</v>
@@ -3582,8 +3590,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
+      <c r="A19" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5.16846874940607E-006</v>
@@ -3593,8 +3601,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
+      <c r="A20" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.000856570953217132</v>
@@ -3604,8 +3612,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
+      <c r="A21" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.00016291524956886</v>
@@ -3630,37 +3638,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="9.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
+      <c r="A2" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.431738943043251</v>
@@ -3668,16 +3671,10 @@
       <c r="C2" s="0" t="n">
         <v>1.21410377655987E-010</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>0.431738943043251</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1.21410377655987E-010</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
+      <c r="A3" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-81.4547774583559</v>
@@ -3685,16 +3682,10 @@
       <c r="C3" s="0" t="n">
         <v>4.0829462385141</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>-81.4547774583559</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>4.0829462385141</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
+      <c r="A4" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>18.5183721041727</v>
@@ -3702,16 +3693,10 @@
       <c r="C4" s="0" t="n">
         <v>7.99594430470695E-007</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>18.5183721041727</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>7.99594430470695E-007</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
+      <c r="A5" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.567354685137039</v>
@@ -3719,16 +3704,10 @@
       <c r="C5" s="0" t="n">
         <v>1.84127891703472E-008</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>-0.567354685137039</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1.84127891703472E-008</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
+      <c r="A6" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>85.3794767878033</v>
@@ -3736,16 +3715,10 @@
       <c r="C6" s="0" t="n">
         <v>1.65622684914216E-005</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>85.3794767878033</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1.65622684914216E-005</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>51</v>
+      <c r="A7" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.103545682502924</v>
@@ -3753,14 +3726,7 @@
       <c r="C7" s="0" t="n">
         <v>2.35376773094737E-010</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>0.103545682502924</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>2.35376773094737E-010</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
